--- a/data/TECHNOLOGY.xlsx
+++ b/data/TECHNOLOGY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698B6633-29C6-4C86-AEBE-3F5E367C9493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488F7091-825D-4FCC-A637-0B03AE5FC7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B8A65AB-00EB-44FC-AAD7-7B35D8CB3DB2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>high-tech</t>
   </si>
@@ -70,13 +70,31 @@
   </si>
   <si>
     <t>Examples</t>
+  </si>
+  <si>
+    <t>This car is equipped with high-tech safety features.</t>
+  </si>
+  <si>
+    <t>My grandfather prefers low-tech solutions like pen and paper.</t>
+  </si>
+  <si>
+    <t>He had a wacky idea to build a boat out of plastic bottles.</t>
+  </si>
+  <si>
+    <t>Her fashion style is very unique; nobody dresses like her.</t>
+  </si>
+  <si>
+    <t>The new software is much more efficient than the old one.</t>
+  </si>
+  <si>
+    <t>Using a typewriter today is considered inefficient compared to a computer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,23 +103,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,17 +133,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -139,16 +151,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,79 +476,92 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.140625" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
